--- a/Repoo insertion, bubble, selection.xlsx
+++ b/Repoo insertion, bubble, selection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18118\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18118\OneDrive\Desktop\Sorting-Algorithms-with-calculating-time-of-sorting-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B7BFC-DFEE-40BF-8778-231F3DAFC45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAE454-8C07-4E6F-BF09-D50F395617CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="2292" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,8 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -243,19 +242,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>906</c:v>
+                  <c:v>1640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,7 +267,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -616,22 +614,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4719</c:v>
+                  <c:v>6777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,22 +989,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>229</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1387</c:v>
+                  <c:v>2398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="71" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="71" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,7 +3265,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>200</v>
       </c>
       <c r="B2">
@@ -3275,7 +3273,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>500</v>
       </c>
       <c r="B3">
@@ -3283,43 +3281,43 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>5000</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>10000</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>20000</v>
       </c>
       <c r="B7">
-        <v>145</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>50000</v>
       </c>
       <c r="B8">
-        <v>906</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3343,7 +3341,7 @@
         <v>500</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3351,7 +3349,7 @@
         <v>1000</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3359,7 +3357,7 @@
         <v>5000</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3367,7 +3365,7 @@
         <v>10000</v>
       </c>
       <c r="B24">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3375,7 +3373,7 @@
         <v>20000</v>
       </c>
       <c r="B25">
-        <v>594</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3383,7 +3381,7 @@
         <v>50000</v>
       </c>
       <c r="B26">
-        <v>4719</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3393,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>200</v>
       </c>
       <c r="B36">
@@ -3403,51 +3401,51 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>500</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>1000</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>5000</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>10000</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>20000</v>
       </c>
       <c r="B41">
-        <v>229</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>50000</v>
       </c>
       <c r="B42">
-        <v>1387</v>
+        <v>2398</v>
       </c>
     </row>
   </sheetData>
